--- a/data/trans_dic/P2C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2941916620895928</v>
+        <v>0.2910528843911513</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3895413571924206</v>
+        <v>0.3936532011291309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2195317026173189</v>
+        <v>0.2172920668294071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08614321645741123</v>
+        <v>0.08556239023853099</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.312507201715577</v>
+        <v>0.3077562241753082</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4833645395747417</v>
+        <v>0.4860145956935047</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3782931684609618</v>
+        <v>0.3749079519300852</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1138850331852253</v>
+        <v>0.1123258197357581</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3126264804505042</v>
+        <v>0.317646820271503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4443592476170929</v>
+        <v>0.4455579586193956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3046841077529164</v>
+        <v>0.3029498614806607</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1052373863865822</v>
+        <v>0.1036873683754755</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.381488181833796</v>
+        <v>0.3788009349601384</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4886819288110486</v>
+        <v>0.4911255069928272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3086619761557048</v>
+        <v>0.3071979361785739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1482657422077799</v>
+        <v>0.1448842863615875</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4274665458032468</v>
+        <v>0.4195032872787905</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5970539119820814</v>
+        <v>0.6029680413520585</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4874510456432991</v>
+        <v>0.483847912308632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1673099889425752</v>
+        <v>0.1711571796370311</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3887166883810513</v>
+        <v>0.3860881173299489</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5221113880316122</v>
+        <v>0.520871473094046</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3763107714798971</v>
+        <v>0.3716699401156214</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.14718119922103</v>
+        <v>0.1461850176072448</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.250087493605855</v>
+        <v>0.2467218199133927</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3996989784740708</v>
+        <v>0.4068182911215271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3320849251069319</v>
+        <v>0.334307436253528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07528854600056596</v>
+        <v>0.07385142234208368</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3514685174973818</v>
+        <v>0.3528988934703827</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5554563583869354</v>
+        <v>0.5653106376070838</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4348323876458711</v>
+        <v>0.4364466602223538</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1224743179448562</v>
+        <v>0.1227145978887285</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3147222518489607</v>
+        <v>0.3138327324426671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4935098005204113</v>
+        <v>0.4916479514946785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3948427761273294</v>
+        <v>0.3965653535015254</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1050055502499611</v>
+        <v>0.1049054658294976</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3453400402977336</v>
+        <v>0.3422634414172621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5072769851743327</v>
+        <v>0.5074314514194346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.429986664728692</v>
+        <v>0.4345581041881669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1313862595822391</v>
+        <v>0.1344487674768316</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4513123667857388</v>
+        <v>0.4544590253667571</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6722448704227498</v>
+        <v>0.6758908233727426</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5408234254881691</v>
+        <v>0.5427328444789798</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1808377544311402</v>
+        <v>0.1835383449836705</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3840743276424213</v>
+        <v>0.3859987644156903</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5710189437754636</v>
+        <v>0.5678091628051848</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4664465943761018</v>
+        <v>0.4701829352210895</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1464630098777644</v>
+        <v>0.148093086242667</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.401082725720784</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1290931694938032</v>
+        <v>0.1290931694938031</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3445697963074941</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2731813124568149</v>
+        <v>0.2743635110789723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4163148173815513</v>
+        <v>0.4107154074082663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2922164729540976</v>
+        <v>0.2903385051897591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1383059498591257</v>
+        <v>0.1400356347670923</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3751461370823085</v>
+        <v>0.3737082746803976</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.429506445418803</v>
+        <v>0.4300425170197164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3258810321791977</v>
+        <v>0.3201730308031646</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09424813769150832</v>
+        <v>0.09329078892387586</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3088960534254153</v>
+        <v>0.3067253015176326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4334472504192752</v>
+        <v>0.4312600150424846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3138733015232222</v>
+        <v>0.3138717619715858</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.130827417535824</v>
+        <v>0.1336765715661632</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3484747315041414</v>
+        <v>0.3524432204516266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4928924671236118</v>
+        <v>0.4942792081058123</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3751481269537407</v>
+        <v>0.3767758329576881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2108224593949906</v>
+        <v>0.2097292161231358</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.527920863849677</v>
+        <v>0.5303561022090161</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5585858848149234</v>
+        <v>0.551778933308785</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4845064065120984</v>
+        <v>0.4816992732817401</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1725803327003469</v>
+        <v>0.1709155683792271</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3813281302822409</v>
+        <v>0.3800680687809073</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4996695767404362</v>
+        <v>0.4991563913142689</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3867053300227563</v>
+        <v>0.3905682130195506</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1876479121610493</v>
+        <v>0.1904755383711645</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3167485849581468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1602247618567994</v>
+        <v>0.1602247618567993</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3843160988902947</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2696736927147563</v>
+        <v>0.2652862915740868</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4535851096486646</v>
+        <v>0.4530855374113502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.289326164398115</v>
+        <v>0.2890257268709021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1382616027558509</v>
+        <v>0.1372783499112554</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3473258786417306</v>
+        <v>0.3463785125448874</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5335895898046437</v>
+        <v>0.5329160067206736</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4011644781453229</v>
+        <v>0.402837101743204</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1377358221433824</v>
+        <v>0.1370142006536794</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3061756791426767</v>
+        <v>0.3065685422115133</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4903392297670009</v>
+        <v>0.4946407501622295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3457300598913702</v>
+        <v>0.3459822830537323</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1434319506764004</v>
+        <v>0.1431346403838259</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3196961282402025</v>
+        <v>0.314945948836617</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5130439287406225</v>
+        <v>0.5121047256442869</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3451343299446314</v>
+        <v>0.3430843864590912</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.183661851954041</v>
+        <v>0.1831512722589193</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4223717178819234</v>
+        <v>0.4207598348131281</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6101574093958892</v>
+        <v>0.6054773714801662</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.471601108006812</v>
+        <v>0.473833415888765</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1819928559314061</v>
+        <v>0.1798758389874231</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3481368268347474</v>
+        <v>0.3499939666196153</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5384213014623341</v>
+        <v>0.5419394314944026</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3892431089362047</v>
+        <v>0.3900767606124468</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1753173672534194</v>
+        <v>0.1770172207495567</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4063889330606018</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2146488780231479</v>
+        <v>0.2146488780231478</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3467762027736444</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2447248214317093</v>
+        <v>0.25242335901485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3879759288263339</v>
+        <v>0.3906764299124291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.294720800393493</v>
+        <v>0.2952726474855977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09451139836952124</v>
+        <v>0.09555683085651781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3369248290819812</v>
+        <v>0.3386195878555475</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5268307545253124</v>
+        <v>0.5238745185353076</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3698603382415755</v>
+        <v>0.3724412738114591</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1922051922947612</v>
+        <v>0.1909651348471398</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3166571834135511</v>
+        <v>0.3170285841200212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4817180608002022</v>
+        <v>0.4822502546419971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3464446212338467</v>
+        <v>0.3449281834566841</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1588993904113943</v>
+        <v>0.1587668363945123</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3471641360413456</v>
+        <v>0.3464550404622701</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4785062989547381</v>
+        <v>0.481530618601385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3709421759114908</v>
+        <v>0.3735653707722079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1487930551682364</v>
+        <v>0.1524548490336164</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4181893753583504</v>
+        <v>0.4251666837424603</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5982214364614734</v>
+        <v>0.5971387838705214</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4462356216819756</v>
+        <v>0.448034472049562</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.236789006021457</v>
+        <v>0.2411340905440153</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3807206654931264</v>
+        <v>0.3793465561311897</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5400456197778417</v>
+        <v>0.5394626751353608</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3973390209828068</v>
+        <v>0.3986720547480972</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1973850147508107</v>
+        <v>0.1956107033520914</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1364086150471842</v>
+        <v>0.1366691532291157</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2585780203616498</v>
+        <v>0.2617343039926988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.174202599803067</v>
+        <v>0.1745899872981429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05027020656189923</v>
+        <v>0.04960675061727717</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2435287134735414</v>
+        <v>0.2436687178636193</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3881902330302085</v>
+        <v>0.3865757092655598</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2595122014313554</v>
+        <v>0.2580453836154553</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2036293450429994</v>
+        <v>0.201927659764098</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2302375377017074</v>
+        <v>0.2318730838107254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3684995032618655</v>
+        <v>0.3658843514692861</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2479868571273803</v>
+        <v>0.2468661652515741</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1763310321222874</v>
+        <v>0.1757260481842527</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2235961708191663</v>
+        <v>0.2200545866909714</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3709846425253661</v>
+        <v>0.3716369132450793</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2738218442223931</v>
+        <v>0.275109782914374</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1662953051987335</v>
+        <v>0.1657092942558957</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2942848371561393</v>
+        <v>0.2955368526094735</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4447835013524476</v>
+        <v>0.4467234090415613</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3182690416609904</v>
+        <v>0.3154481486112649</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2573413107823654</v>
+        <v>0.2537282626620711</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2729815831615094</v>
+        <v>0.2742402394350135</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4211789830913212</v>
+        <v>0.4245521149806885</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2959898635111262</v>
+        <v>0.2993841728124208</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2260976449738337</v>
+        <v>0.2229094180807676</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2744480677386261</v>
+        <v>0.2770298343292271</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4291033692584633</v>
+        <v>0.4298783395857244</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.298592239781758</v>
+        <v>0.2978612897768655</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1227989130859864</v>
+        <v>0.1232694288817512</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3266705915411741</v>
+        <v>0.3286461429244456</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.496731251586753</v>
+        <v>0.4988353981121819</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3706887537800051</v>
+        <v>0.3709120734373313</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1705308894890865</v>
+        <v>0.1709176824601806</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3072768068800334</v>
+        <v>0.3064086218513393</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4705112338937807</v>
+        <v>0.4707376729724807</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3387534716077752</v>
+        <v>0.3396602686829994</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1503180520861564</v>
+        <v>0.1502910363076918</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3063235890622968</v>
+        <v>0.3097832877938825</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4649317473987117</v>
+        <v>0.4646726078094119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3306733395091272</v>
+        <v>0.328915367688833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1476007495367537</v>
+        <v>0.1480164335658629</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3600465743489306</v>
+        <v>0.3608213695598475</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5317904311190343</v>
+        <v>0.5321958938039103</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4027564403167294</v>
+        <v>0.4049110762858858</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1930327225132074</v>
+        <v>0.1929456759111683</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3314110526240821</v>
+        <v>0.3300301593972674</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4954406779653661</v>
+        <v>0.4964769269937678</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3630960963472636</v>
+        <v>0.3630400331505109</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1678494237296543</v>
+        <v>0.1665082358855242</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139381</v>
+        <v>137894</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>170312</v>
+        <v>172110</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>94199</v>
+        <v>93238</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47432</v>
+        <v>47112</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>95840</v>
+        <v>94383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>151996</v>
+        <v>152829</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>131289</v>
+        <v>130114</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>55623</v>
+        <v>54861</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>243992</v>
+        <v>247910</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>334009</v>
+        <v>334910</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>236480</v>
+        <v>235134</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>109345</v>
+        <v>107734</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>180740</v>
+        <v>179467</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>213657</v>
+        <v>214725</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>132444</v>
+        <v>131816</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81638</v>
+        <v>79776</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>131095</v>
+        <v>128653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>187746</v>
+        <v>189606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>169172</v>
+        <v>167922</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>81716</v>
+        <v>83595</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>303377</v>
+        <v>301325</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>392453</v>
+        <v>391521</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>292072</v>
+        <v>288471</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>152926</v>
+        <v>151890</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>91766</v>
+        <v>90531</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>167393</v>
+        <v>170374</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>125271</v>
+        <v>126110</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36380</v>
+        <v>35686</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>130699</v>
+        <v>131231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>187750</v>
+        <v>191081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>161876</v>
+        <v>162477</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51824</v>
+        <v>51926</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>232516</v>
+        <v>231859</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>373492</v>
+        <v>372083</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>295935</v>
+        <v>297226</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>95172</v>
+        <v>95082</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>126717</v>
+        <v>125588</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>212446</v>
+        <v>212511</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162203</v>
+        <v>163927</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63487</v>
+        <v>64967</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>167827</v>
+        <v>168997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>227226</v>
+        <v>228459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>201334</v>
+        <v>202045</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>76520</v>
+        <v>77663</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>283754</v>
+        <v>285176</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>432152</v>
+        <v>429723</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>349602</v>
+        <v>352402</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>132747</v>
+        <v>134225</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>148171</v>
+        <v>148812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>262035</v>
+        <v>258510</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>152512</v>
+        <v>151532</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65227</v>
+        <v>66042</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62943</v>
+        <v>62702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>111727</v>
+        <v>111867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>54136</v>
+        <v>53188</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17671</v>
+        <v>17492</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>219369</v>
+        <v>217827</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>385570</v>
+        <v>383625</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>215956</v>
+        <v>215955</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>86230</v>
+        <v>88107</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>189009</v>
+        <v>191161</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>310234</v>
+        <v>311107</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>195795</v>
+        <v>196645</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>99426</v>
+        <v>98911</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>88576</v>
+        <v>88984</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>145304</v>
+        <v>143534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>80488</v>
+        <v>80021</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32358</v>
+        <v>32046</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>270808</v>
+        <v>269913</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>444478</v>
+        <v>444022</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>266067</v>
+        <v>268725</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>123680</v>
+        <v>125544</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>333946</v>
+        <v>328513</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>525709</v>
+        <v>525130</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>332620</v>
+        <v>332275</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>156490</v>
+        <v>155378</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>248090</v>
+        <v>247413</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>409080</v>
+        <v>408564</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>331312</v>
+        <v>332693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118620</v>
+        <v>117998</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>597845</v>
+        <v>598612</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>944230</v>
+        <v>952513</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>682995</v>
+        <v>683493</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>285868</v>
+        <v>285275</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>395891</v>
+        <v>390008</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>594623</v>
+        <v>593534</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>396780</v>
+        <v>394423</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>207876</v>
+        <v>207298</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>301694</v>
+        <v>300542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>467781</v>
+        <v>464193</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>389484</v>
+        <v>391328</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>156734</v>
+        <v>154911</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>679779</v>
+        <v>683405</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1036820</v>
+        <v>1043595</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>768955</v>
+        <v>770602</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>349417</v>
+        <v>352805</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>85790</v>
+        <v>88488</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>198099</v>
+        <v>199478</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>182935</v>
+        <v>183278</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>53679</v>
+        <v>54273</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>191627</v>
+        <v>192591</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>401193</v>
+        <v>398942</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>273047</v>
+        <v>274953</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>159694</v>
+        <v>158663</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>291105</v>
+        <v>291447</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>612802</v>
+        <v>613479</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>470801</v>
+        <v>468740</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>222271</v>
+        <v>222085</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>121700</v>
+        <v>121452</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>244323</v>
+        <v>245868</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>230246</v>
+        <v>231874</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>84509</v>
+        <v>86589</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>237846</v>
+        <v>241814</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>455559</v>
+        <v>454734</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>329431</v>
+        <v>330759</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>196736</v>
+        <v>200346</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>349999</v>
+        <v>348736</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>687002</v>
+        <v>686260</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>539964</v>
+        <v>541775</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>276105</v>
+        <v>273623</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>40677</v>
+        <v>40755</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69010</v>
+        <v>69852</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50021</v>
+        <v>50133</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11926</v>
+        <v>11768</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>304109</v>
+        <v>304284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>430639</v>
+        <v>428848</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>280799</v>
+        <v>279212</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>171920</v>
+        <v>170484</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>356168</v>
+        <v>358698</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>507141</v>
+        <v>503542</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>339536</v>
+        <v>338002</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>190704</v>
+        <v>190049</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>66677</v>
+        <v>65620</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>99009</v>
+        <v>99183</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>78627</v>
+        <v>78996</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39450</v>
+        <v>39311</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>367491</v>
+        <v>369055</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>493421</v>
+        <v>495573</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>344375</v>
+        <v>341323</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>217268</v>
+        <v>214218</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>422292</v>
+        <v>424239</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>579640</v>
+        <v>584283</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>405260</v>
+        <v>409908</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>244527</v>
+        <v>241079</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>897497</v>
+        <v>905940</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1468353</v>
+        <v>1471005</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1010950</v>
+        <v>1008476</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>422732</v>
+        <v>424352</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1103534</v>
+        <v>1110207</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1763458</v>
+        <v>1770928</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1309123</v>
+        <v>1309912</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>619947</v>
+        <v>621353</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2042873</v>
+        <v>2037101</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3280421</v>
+        <v>3282000</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2343265</v>
+        <v>2349538</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1063931</v>
+        <v>1063740</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1001736</v>
+        <v>1013050</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1590955</v>
+        <v>1590068</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1119568</v>
+        <v>1113616</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>508112</v>
+        <v>509543</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1216282</v>
+        <v>1218899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1887923</v>
+        <v>1889362</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1422373</v>
+        <v>1429982</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>701750</v>
+        <v>701433</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2203325</v>
+        <v>2194144</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>3454230</v>
+        <v>3461455</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2511651</v>
+        <v>2511263</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1188016</v>
+        <v>1178523</v>
       </c>
     </row>
     <row r="32">
